--- a/Compte_rendu_scrum5.xlsx
+++ b/Compte_rendu_scrum5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1045708\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasgarneau/Desktop/École/Session 5/Conception/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD85A2E4-3173-4B1D-99BC-7CB27E47A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6170B779-F419-3B49-9080-625E83DDDAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{078FEF86-AC66-4B81-B445-CA8567EE70E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="6" xr2:uid="{078FEF86-AC66-4B81-B445-CA8567EE70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Équipe" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="jour3" sheetId="6" r:id="rId4"/>
     <sheet name="jour4" sheetId="4" r:id="rId5"/>
     <sheet name="jour5" sheetId="8" r:id="rId6"/>
-    <sheet name="Feuil1" sheetId="7" r:id="rId7"/>
+    <sheet name="jour 6" sheetId="10" r:id="rId7"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="53">
   <si>
     <t>Nom</t>
   </si>
@@ -190,6 +191,15 @@
   </si>
   <si>
     <t>N/A (absent)</t>
+  </si>
+  <si>
+    <t>Rien</t>
+  </si>
+  <si>
+    <t>Lier le canvas de l'input name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : mercredi 2 novembre 2022 </t>
   </si>
 </sst>
 </file>
@@ -301,7 +311,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
@@ -337,7 +350,7 @@
     <tableColumn id="1" xr3:uid="{C857B54B-6BC3-4FF2-BFFB-1D143C262B52}" name="Solution-Suggestions de..."/>
     <tableColumn id="2" xr3:uid="{1D986E48-17AC-48DA-8725-2CF1EC94BE50}" name="Compte-rendu"/>
     <tableColumn id="3" xr3:uid="{5EC7C854-8BE2-4EE1-A889-E88B5F8F8F0B}" name="Commentaires"/>
-    <tableColumn id="4" xr3:uid="{EBAEE494-6F1B-4158-9211-BFBA8605FDED}" name="Date du commentaire" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EBAEE494-6F1B-4158-9211-BFBA8605FDED}" name="Date du commentaire" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -350,7 +363,7 @@
     <tableColumn id="1" xr3:uid="{3E5AFFC6-5E6C-4D1E-BDAF-4E7AB3F25F0F}" name="Solution-Suggestions de..."/>
     <tableColumn id="2" xr3:uid="{8ACBD988-7A0F-486A-B580-70E9CF0FF5D5}" name="Compte-rendu"/>
     <tableColumn id="3" xr3:uid="{C32AACA8-F75D-4F59-B5B7-EAD5D0896673}" name="Commentaires"/>
-    <tableColumn id="4" xr3:uid="{6A80C494-D359-4FA1-BA11-5BFC62C40BE7}" name="Date du commentaire" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6A80C494-D359-4FA1-BA11-5BFC62C40BE7}" name="Date du commentaire" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -363,7 +376,7 @@
     <tableColumn id="1" xr3:uid="{3F121F7C-2860-4C6D-A998-B1895D2803EB}" name="Solution-Suggestions de..."/>
     <tableColumn id="2" xr3:uid="{CECC53CB-8EBB-42CF-A2B9-7A16739F96CE}" name="Compte-rendu"/>
     <tableColumn id="3" xr3:uid="{D8855365-AEED-447F-A0F7-C2D488E7D41C}" name="Commentaires"/>
-    <tableColumn id="4" xr3:uid="{74328B46-E4FD-498B-AB41-44B210C20A06}" name="Date du commentaire" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{74328B46-E4FD-498B-AB41-44B210C20A06}" name="Date du commentaire" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -376,7 +389,7 @@
     <tableColumn id="1" xr3:uid="{1B72BD76-4C54-435E-867A-B5C47B1D3646}" name="Solution-Suggestions de..."/>
     <tableColumn id="2" xr3:uid="{82E877C4-162B-431F-B6AC-6878B1A5F61F}" name="Compte-rendu"/>
     <tableColumn id="3" xr3:uid="{3777F199-427A-4179-9CAF-B9376D3BDB72}" name="Commentaires"/>
-    <tableColumn id="4" xr3:uid="{B4B25853-7407-4FB8-8775-F065E4FE15F8}" name="Date du commentaire" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B4B25853-7407-4FB8-8775-F065E4FE15F8}" name="Date du commentaire" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -389,7 +402,20 @@
     <tableColumn id="1" xr3:uid="{3BCE9547-0DE8-4E3F-874B-F1010FE2F60F}" name="Solution-Suggestions de..."/>
     <tableColumn id="2" xr3:uid="{D6AA45DD-CE6B-42F5-A842-C136D91FF6E2}" name="Compte-rendu"/>
     <tableColumn id="3" xr3:uid="{3BD9736C-806C-4404-9E01-9885EC3929E7}" name="Commentaires"/>
-    <tableColumn id="4" xr3:uid="{70A09651-66ED-41EC-B8AC-32BF16037317}" name="Date du commentaire" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{70A09651-66ED-41EC-B8AC-32BF16037317}" name="Date du commentaire" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C24CBF6-6C9C-ED40-AEB7-40DF1698FA73}" name="Tableau1468" displayName="Tableau1468" ref="B42:E65" totalsRowShown="0">
+  <autoFilter ref="B42:E65" xr:uid="{929DCE2C-6B0F-4BAF-9345-0EA07D3B31DF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FC174709-A87D-9242-97F0-B75B02D2B80E}" name="Solution-Suggestions de..."/>
+    <tableColumn id="2" xr3:uid="{B1759B08-5295-B548-BFE2-A5DC39B32F47}" name="Compte-rendu"/>
+    <tableColumn id="3" xr3:uid="{7CEF07AC-EF24-5D46-9136-626D57625ABA}" name="Commentaires"/>
+    <tableColumn id="4" xr3:uid="{50C1E154-C01E-7041-9BD5-D9EC9D384FDC}" name="Date du commentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -398,7 +424,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -542,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,71 +724,71 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>5</v>
       </c>
@@ -781,202 +807,202 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f>Équipe!B6</f>
         <v xml:space="preserve">Paul Agudze </v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
         <f>Équipe!B7</f>
         <v>Maxime Desrochers</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
         <f>Équipe!B8</f>
         <v>Thomas Garneau</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
         <f>Équipe!B9</f>
         <v xml:space="preserve">Nancy Wlodarski </v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f>Équipe!B10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f>Équipe!B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>Équipe!B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -993,95 +1019,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="E65" s="6"/>
     </row>
@@ -1113,202 +1139,202 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f>Équipe!B6</f>
         <v xml:space="preserve">Paul Agudze </v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
         <f>Équipe!B7</f>
         <v>Maxime Desrochers</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
         <f>Équipe!B8</f>
         <v>Thomas Garneau</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
         <f>Équipe!B9</f>
         <v xml:space="preserve">Nancy Wlodarski </v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f>Équipe!B10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f>Équipe!B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>Équipe!B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -1325,95 +1351,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="E65" s="6"/>
     </row>
@@ -1445,21 +1471,21 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f>Équipe!B6</f>
         <v xml:space="preserve">Paul Agudze </v>
@@ -1476,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +1526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
         <f>Équipe!B7</f>
         <v>Maxime Desrochers</v>
@@ -1509,25 +1535,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
         <f>Équipe!B8</f>
         <v>Thomas Garneau</v>
@@ -1536,25 +1562,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
         <f>Équipe!B9</f>
         <v xml:space="preserve">Nancy Wlodarski </v>
@@ -1563,7 +1589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1587,84 +1613,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f>Équipe!B10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f>Équipe!B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>Équipe!B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -1681,95 +1707,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="E65" s="6"/>
     </row>
@@ -1799,21 +1825,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f>Équipe!B6</f>
         <v xml:space="preserve">Paul Agudze </v>
@@ -1830,7 +1856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1846,7 +1872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
         <f>Équipe!B7</f>
         <v>Maxime Desrochers</v>
@@ -1863,7 +1889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
         <f>Équipe!B8</f>
         <v>Thomas Garneau</v>
@@ -1896,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1920,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
         <f>Équipe!B9</f>
         <v xml:space="preserve">Nancy Wlodarski </v>
@@ -1929,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1953,84 +1979,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f>Équipe!B10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f>Équipe!B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>Équipe!B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -2047,95 +2073,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="E65" s="6"/>
     </row>
@@ -2163,25 +2189,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B4A782-03BE-4297-820A-1AF59F1944F9}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -2192,13 +2218,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="str">
         <f>Équipe!B6</f>
         <v xml:space="preserve">Paul Agudze </v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +2232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2222,13 +2248,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="str">
         <f>Équipe!B7</f>
         <v>Maxime Desrochers</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2236,7 +2262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2244,7 +2270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2252,13 +2278,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="str">
         <f>Équipe!B8</f>
         <v>Thomas Garneau</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2266,7 +2292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2274,7 +2300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2282,13 +2308,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="str">
         <f>Équipe!B9</f>
         <v xml:space="preserve">Nancy Wlodarski </v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2296,7 +2322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2312,84 +2338,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f>Équipe!B10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f>Équipe!B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>Équipe!B12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -2406,95 +2432,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="E65" s="6"/>
     </row>
@@ -2519,6 +2545,363 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3F812-FB85-E44F-9F08-43702C199D49}">
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="str">
+        <f>Équipe!B6</f>
+        <v xml:space="preserve">Paul Agudze </v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="str">
+        <f>Équipe!B7</f>
+        <v>Maxime Desrochers</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="str">
+        <f>Équipe!B8</f>
+        <v>Thomas Garneau</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="str">
+        <f>Équipe!B9</f>
+        <v xml:space="preserve">Nancy Wlodarski </v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <f>Équipe!B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <f>Équipe!B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <f>Équipe!B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="E65" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6277B52A-3141-9446-94C7-5861200CB3DC}">
+          <x14:formula1>
+            <xm:f>Équipe!$B$6:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>A43:B65</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4845D8E9-99D9-46AA-B2AF-32B4DBE4B692}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2526,7 +2909,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
